--- a/Vessels_DATA/ALTERNATIVE_PROP_2/23964TEU_base_chain.xlsx
+++ b/Vessels_DATA/ALTERNATIVE_PROP_2/23964TEU_base_chain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roeland van Hagen\Documents\Maritieme techniek\1.Master\MT44070 shipping management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\Documents\TU-Delft\TIL Master\MT44070 Shipping Management\MT44070_REPO\MT44070_SHIPPING\Vessels_DATA\ALTERNATIVE_PROP_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D020AF-17EE-47AB-B62D-BB3738A73FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24022B4-EBAC-49D9-9BF7-B4969EEAEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="11976" activeTab="3" xr2:uid="{4973D9DF-C855-46E6-AA21-847E8158FFF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4973D9DF-C855-46E6-AA21-847E8158FFF4}"/>
   </bookViews>
   <sheets>
     <sheet name="CostChain_TwoNuts" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1047,7 +1047,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1549,7 +1549,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2052,16 +2052,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019852</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601869</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2093,16 +2093,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2131,7 +2131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2449,7 +2449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55551C7E-16E8-46D4-BF67-3F03B99EEA1B}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3064,7 +3066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2306A217-954A-4F66-887E-B884A228C213}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11812,7 +11816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C86EDEF-661F-44AF-AB08-78A2D986A560}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
